--- a/webscrapping final/Bases finales/base_2015.xlsx
+++ b/webscrapping final/Bases finales/base_2015.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\SED---Cuantitativo\webscrapping final\Bases finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D81846E-B047-4609-AE6B-D95BC2C9AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E694131-496A-4EF4-AE63-88C92A1636F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_PAROS_UNIFICADOS_2015" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">BASE_PAROS_UNIFICADOS_2015!$A$1:$L$9</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">BASE_PAROS_UNIFICADOS_2015!$A$1:$L$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -84,39 +84,12 @@
     <t>paro docente</t>
   </si>
   <si>
-    <t>Conflictos sociales en el sector educativo y demandas de derechos humanos.</t>
-  </si>
-  <si>
-    <t>Durante los primeros meses de 2015, se registraron 283 protestas en Colombia, incluyendo cese de actividades en el sector educativo.</t>
-  </si>
-  <si>
     <t>WEB</t>
   </si>
   <si>
-    <t>https://www.defensoria.gov.co/en/-/283-protestas-sociales-se-presentaron-en-el-pa%C3%ADs-durante-los-primeros-meses-del-a%C3%B1o</t>
-  </si>
-  <si>
-    <t>SINALSERPUB</t>
-  </si>
-  <si>
-    <t>Incumplimiento de pagos acordados, homologación salarial parcial y falta de pagos retroactivos.</t>
-  </si>
-  <si>
-    <t>Protesta de empleados del sector educativo en Soledad causa suspensión de clases para más de 3,000 estudiantes.</t>
-  </si>
-  <si>
-    <t>https://www.elheraldo.co/local/2015/03/03/mas-de-3-mil-estudiantes-dejan-de-recibir-clases-por-protesta/</t>
-  </si>
-  <si>
     <t>FECODE</t>
   </si>
   <si>
-    <t>Los docentes exigen un incremento salarial del 28% y mejoras en el sistema de evaluación de competencias.</t>
-  </si>
-  <si>
-    <t>El paro de maestros continúa tras diálogos infructuosos con el Gobierno, afectando a cerca de nueve millones de estudiantes.</t>
-  </si>
-  <si>
     <t>https://www.eltiempo.com/archivo/documento/cms-15681505</t>
   </si>
   <si>
@@ -193,13 +166,28 @@
   </si>
   <si>
     <t>https://www.usergioarboleda.edu.co/sergiointeractivo/uncategorized/protestas-de-profesores-colombia/</t>
+  </si>
+  <si>
+    <t>https://www.fecode.edu.co/images/comunicados/2015/ACTA%20DE%20ACUERDOS%20FECODE_MEN.pdf?utm_source</t>
+  </si>
+  <si>
+    <t>https://www.ultimahora.com/profesores-huelga-inician-una-nueva-protesta-varias-ciudades-colombia-n892157?utm_source</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/educacion/2015/05/06/avanzan-las-marchas-de-fecode-en-bogota/?utm_source</t>
+  </si>
+  <si>
+    <t>url_4</t>
+  </si>
+  <si>
+    <t>url_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +195,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,42 +233,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -292,41 +309,45 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{2FD2A8A8-40B9-496B-B662-EB61D7415A4F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="16" unboundColumnsRight="2">
+    <queryTableFields count="14">
       <queryTableField id="1" name="fecha_inicio" tableColumnId="1"/>
       <queryTableField id="2" name="fecha_fin" tableColumnId="2"/>
-      <queryTableField id="3" name="duracion_dias" tableColumnId="3"/>
       <queryTableField id="4" name="ciudad" tableColumnId="4"/>
       <queryTableField id="5" name="organizaciones_sindicales" tableColumnId="5"/>
       <queryTableField id="6" name="tipo_movilizacion" tableColumnId="6"/>
+      <queryTableField id="3" name="duracion_dias" tableColumnId="3"/>
       <queryTableField id="7" name="razones_paro" tableColumnId="7"/>
       <queryTableField id="8" name="resumen" tableColumnId="8"/>
       <queryTableField id="9" name="fuentes_presentes" tableColumnId="9"/>
       <queryTableField id="10" name="url_1" tableColumnId="10"/>
       <queryTableField id="11" name="url_2" tableColumnId="11"/>
       <queryTableField id="12" name="url_3" tableColumnId="12"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F118CDCA-1531-4DA8-ADDE-39B0D56BF82A}" name="BASE_PAROS_UNIFICADOS_2015" displayName="BASE_PAROS_UNIFICADOS_2015" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L9" xr:uid="{F118CDCA-1531-4DA8-ADDE-39B0D56BF82A}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3B0F1791-5644-4D76-860E-9B962C672B32}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E5182D81-887D-4544-962E-99E5D5FEC185}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F118CDCA-1531-4DA8-ADDE-39B0D56BF82A}" name="BASE_PAROS_UNIFICADOS_2015" displayName="BASE_PAROS_UNIFICADOS_2015" ref="A1:N6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N6" xr:uid="{F118CDCA-1531-4DA8-ADDE-39B0D56BF82A}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{3B0F1791-5644-4D76-860E-9B962C672B32}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E5182D81-887D-4544-962E-99E5D5FEC185}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B7891A76-DD71-46B7-B6DE-BACD63844D74}" uniqueName="4" name="ciudad" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6804F67A-55E1-4CC8-9A4C-9746EE69FE52}" uniqueName="5" name="organizaciones_sindicales" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{451A6AB2-33F8-4633-ADE2-F94D25C7090E}" uniqueName="6" name="tipo_movilizacion" queryTableFieldId="6" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{0945D63C-83E3-4A27-B57B-E8A05FBA1CD9}" uniqueName="3" name="duracion_dias" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B7891A76-DD71-46B7-B6DE-BACD63844D74}" uniqueName="4" name="ciudad" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6804F67A-55E1-4CC8-9A4C-9746EE69FE52}" uniqueName="5" name="organizaciones_sindicales" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{451A6AB2-33F8-4633-ADE2-F94D25C7090E}" uniqueName="6" name="tipo_movilizacion" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FAB7D13C-2CE9-4CFB-AA41-B00F2F9F2ABA}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{B4DFB246-2278-4020-AFB8-E1D6CFBAF183}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{66948E06-9D7D-4442-AE22-E2A6B16B4D35}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A47EEB44-62E7-4B64-9353-D49ABCAEEF47}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DE9447D6-94D3-42E0-BB38-12FF6875C730}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{E9DD1761-7E9F-4172-B760-FB33DAF2A790}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{FAB7D13C-2CE9-4CFB-AA41-B00F2F9F2ABA}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B4DFB246-2278-4020-AFB8-E1D6CFBAF183}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{66948E06-9D7D-4442-AE22-E2A6B16B4D35}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A47EEB44-62E7-4B64-9353-D49ABCAEEF47}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DE9447D6-94D3-42E0-BB38-12FF6875C730}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E9DD1761-7E9F-4172-B760-FB33DAF2A790}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{AE150448-F55B-4841-9E3A-2771E9F9BC17}" uniqueName="13" name="url_4" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{B1F4E1AD-693C-4800-A3C6-988DF4E15E55}" uniqueName="14" name="url_5" queryTableFieldId="15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,27 +616,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C9049C-76A9-48F5-8279-97A3397D97B4}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" customWidth="1"/>
+    <col min="11" max="12" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="133.5703125" customWidth="1"/>
+    <col min="14" max="14" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,18 +646,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -652,315 +675,232 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42005</v>
+        <v>42116</v>
       </c>
       <c r="B2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>42130</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42130</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42192</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42201</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42038</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42038</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42068</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42081</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42116</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42130</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42124</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42130</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42130</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42142</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42160</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42173</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42192</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42201</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{AB594C32-28D8-4259-AFDA-94C75B597EF2}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{E7CA065C-634F-4E43-BEBF-09AF168FBE80}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{82F5ED7A-63CA-4643-B5E2-62304F88619C}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{60210412-18D4-49FC-8FBE-5CF71625E0A0}"/>
+    <hyperlink ref="M3" r:id="rId5" xr:uid="{8B51A523-BE43-42AE-B46E-6EF46986B104}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{09C0A67A-9BE0-4FB6-A4A2-32B7A8E2F6C4}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{D561C0E6-512A-4C56-BAB6-8E0F3D76661D}"/>
+    <hyperlink ref="L4" r:id="rId8" xr:uid="{2BB52BE3-E7F3-4B69-A7FB-5D90DF272A08}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
